--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.002486</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N2">
-        <v>0.007458</v>
+        <v>0.021365</v>
       </c>
       <c r="O2">
-        <v>3.00751452789208E-05</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P2">
-        <v>3.00751452789208E-05</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q2">
-        <v>0.001563795097333333</v>
+        <v>0.01322608158833334</v>
       </c>
       <c r="R2">
-        <v>0.014074155876</v>
+        <v>0.119034734295</v>
       </c>
       <c r="S2">
-        <v>7.271618130797799E-08</v>
+        <v>4.421905700219967E-07</v>
       </c>
       <c r="T2">
-        <v>7.2716181307978E-08</v>
+        <v>4.421905700219967E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.03513</v>
       </c>
       <c r="O3">
-        <v>0.0001416653062011917</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P3">
-        <v>0.0001416653062011917</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q3">
-        <v>0.007366066206666667</v>
+        <v>0.02174735531</v>
       </c>
       <c r="R3">
-        <v>0.06629459586</v>
+        <v>0.19572619779</v>
       </c>
       <c r="S3">
-        <v>3.425207092181907E-07</v>
+        <v>7.270842370640179E-07</v>
       </c>
       <c r="T3">
-        <v>3.425207092181909E-07</v>
+        <v>7.270842370640179E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.107756666666667</v>
+        <v>15.223647</v>
       </c>
       <c r="N4">
-        <v>27.32327</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O4">
-        <v>0.1101838716472484</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P4">
-        <v>0.1101838716472484</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q4">
-        <v>5.729149325437779</v>
+        <v>28.27276348616701</v>
       </c>
       <c r="R4">
-        <v>51.56234392894</v>
+        <v>254.4548713755031</v>
       </c>
       <c r="S4">
-        <v>0.0002664043785528071</v>
+        <v>0.000945249680984366</v>
       </c>
       <c r="T4">
-        <v>0.0002664043785528072</v>
+        <v>0.000945249680984366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.26224133333334</v>
+        <v>0.01159</v>
       </c>
       <c r="N5">
-        <v>195.786724</v>
+        <v>0.03477</v>
       </c>
       <c r="O5">
-        <v>0.7895299233016854</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P5">
-        <v>0.7895299233016855</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q5">
-        <v>41.05260379648089</v>
+        <v>0.02152449599000001</v>
       </c>
       <c r="R5">
-        <v>369.473434168328</v>
+        <v>0.19372046391</v>
       </c>
       <c r="S5">
-        <v>0.001908938444633822</v>
+        <v>7.196333311333876E-07</v>
       </c>
       <c r="T5">
-        <v>0.001908938444633823</v>
+        <v>7.196333311333875E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.275423333333334</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N6">
-        <v>24.82627</v>
+        <v>254.914367</v>
       </c>
       <c r="O6">
-        <v>0.1001144645995861</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P6">
-        <v>0.1001144645995861</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q6">
-        <v>5.205577810548889</v>
+        <v>157.8056735773624</v>
       </c>
       <c r="R6">
-        <v>46.85020029494</v>
+        <v>1420.251062196261</v>
       </c>
       <c r="S6">
-        <v>0.0002420584004452688</v>
+        <v>0.005275952691342217</v>
       </c>
       <c r="T6">
-        <v>0.0002420584004452688</v>
+        <v>0.005275952691342217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002486</v>
+        <v>7.249708000000001</v>
       </c>
       <c r="N7">
-        <v>0.007458</v>
+        <v>21.749124</v>
       </c>
       <c r="O7">
-        <v>3.00751452789208E-05</v>
+        <v>0.0674546855364323</v>
       </c>
       <c r="P7">
-        <v>3.00751452789208E-05</v>
+        <v>0.06745468553643229</v>
       </c>
       <c r="Q7">
-        <v>0.2060367075726667</v>
+        <v>13.463874958988</v>
       </c>
       <c r="R7">
-        <v>1.854330368154</v>
+        <v>121.174874630892</v>
       </c>
       <c r="S7">
-        <v>9.580668598783383E-06</v>
+        <v>0.0004501407694378231</v>
       </c>
       <c r="T7">
-        <v>9.580668598783386E-06</v>
+        <v>0.000450140769437823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.01171</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N8">
-        <v>0.03513</v>
+        <v>0.021365</v>
       </c>
       <c r="O8">
-        <v>0.0001416653062011917</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P8">
-        <v>0.0001416653062011917</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q8">
-        <v>0.9705107987433333</v>
+        <v>0.590235218193889</v>
       </c>
       <c r="R8">
-        <v>8.734597188690001</v>
+        <v>5.312116963745001</v>
       </c>
       <c r="S8">
-        <v>4.512857171832398E-05</v>
+        <v>1.973346722814995E-05</v>
       </c>
       <c r="T8">
-        <v>4.512857171832399E-05</v>
+        <v>1.973346722814995E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>9.107756666666667</v>
+        <v>0.01171</v>
       </c>
       <c r="N9">
-        <v>27.32327</v>
+        <v>0.03513</v>
       </c>
       <c r="O9">
-        <v>0.1101838716472484</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P9">
-        <v>0.1101838716472484</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q9">
-        <v>754.8399826922789</v>
+        <v>0.9705107987433333</v>
       </c>
       <c r="R9">
-        <v>6793.55984423051</v>
+        <v>8.734597188690001</v>
       </c>
       <c r="S9">
-        <v>0.03509991886632878</v>
+        <v>3.244730651649463E-05</v>
       </c>
       <c r="T9">
-        <v>0.03509991886632879</v>
+        <v>3.244730651649463E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.26224133333334</v>
+        <v>15.223647</v>
       </c>
       <c r="N10">
-        <v>195.786724</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O10">
-        <v>0.7895299233016854</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P10">
-        <v>0.7895299233016855</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q10">
-        <v>5408.856529820113</v>
+        <v>1261.717660952737</v>
       </c>
       <c r="R10">
-        <v>48679.70876838101</v>
+        <v>11355.45894857463</v>
       </c>
       <c r="S10">
-        <v>0.2515108231007602</v>
+        <v>0.04218329124747344</v>
       </c>
       <c r="T10">
-        <v>0.2515108231007602</v>
+        <v>0.04218329124747344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.275423333333334</v>
+        <v>0.01159</v>
       </c>
       <c r="N11">
-        <v>24.82627</v>
+        <v>0.03477</v>
       </c>
       <c r="O11">
-        <v>0.1001144645995861</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P11">
-        <v>0.1001144645995861</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q11">
-        <v>685.8571912188345</v>
+        <v>0.9605653422233335</v>
       </c>
       <c r="R11">
-        <v>6172.71472096951</v>
+        <v>8.64508808001</v>
       </c>
       <c r="S11">
-        <v>0.0318922318870901</v>
+        <v>3.211479782460912E-05</v>
       </c>
       <c r="T11">
-        <v>0.0318922318870901</v>
+        <v>3.211479782460912E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.002486</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N12">
-        <v>0.007458</v>
+        <v>254.914367</v>
       </c>
       <c r="O12">
-        <v>3.00751452789208E-05</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P12">
-        <v>3.00751452789208E-05</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q12">
-        <v>0.1019770359226667</v>
+        <v>7042.332648116175</v>
       </c>
       <c r="R12">
-        <v>0.917793323304</v>
+        <v>63380.99383304557</v>
       </c>
       <c r="S12">
-        <v>4.741913212317852E-06</v>
+        <v>0.2354478964277598</v>
       </c>
       <c r="T12">
-        <v>4.741913212317853E-06</v>
+        <v>0.2354478964277598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01171</v>
+        <v>7.249708000000001</v>
       </c>
       <c r="N13">
-        <v>0.03513</v>
+        <v>21.749124</v>
       </c>
       <c r="O13">
-        <v>0.0001416653062011917</v>
+        <v>0.0674546855364323</v>
       </c>
       <c r="P13">
-        <v>0.0001416653062011917</v>
+        <v>0.06745468553643229</v>
       </c>
       <c r="Q13">
-        <v>0.4803503984933334</v>
+        <v>600.8471308058014</v>
       </c>
       <c r="R13">
-        <v>4.32315358644</v>
+        <v>5407.624177252213</v>
       </c>
       <c r="S13">
-        <v>2.233620423018586E-05</v>
+        <v>0.02008825769693282</v>
       </c>
       <c r="T13">
-        <v>2.233620423018586E-05</v>
+        <v>0.02008825769693281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>9.107756666666667</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N14">
-        <v>27.32327</v>
+        <v>0.021365</v>
       </c>
       <c r="O14">
-        <v>0.1101838716472484</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P14">
-        <v>0.1101838716472484</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q14">
-        <v>373.6049995058623</v>
+        <v>0.4255733186822223</v>
       </c>
       <c r="R14">
-        <v>3362.44499555276</v>
+        <v>3.83015986814</v>
       </c>
       <c r="S14">
-        <v>0.01737256302181925</v>
+        <v>1.422828878813521E-05</v>
       </c>
       <c r="T14">
-        <v>0.01737256302181926</v>
+        <v>1.422828878813521E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>65.26224133333334</v>
+        <v>0.01171</v>
       </c>
       <c r="N15">
-        <v>195.786724</v>
+        <v>0.03513</v>
       </c>
       <c r="O15">
-        <v>0.7895299233016854</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P15">
-        <v>0.7895299233016855</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q15">
-        <v>2677.091684973079</v>
+        <v>0.6997608558533334</v>
       </c>
       <c r="R15">
-        <v>24093.82516475771</v>
+        <v>6.29784770268</v>
       </c>
       <c r="S15">
-        <v>0.1244842656653297</v>
+        <v>2.339526258493751E-05</v>
       </c>
       <c r="T15">
-        <v>0.1244842656653297</v>
+        <v>2.339526258493751E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.275423333333334</v>
+        <v>15.223647</v>
       </c>
       <c r="N16">
-        <v>24.82627</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O16">
-        <v>0.1001144645995861</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P16">
-        <v>0.1001144645995861</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q16">
-        <v>339.4622455907512</v>
+        <v>909.7277757411641</v>
       </c>
       <c r="R16">
-        <v>3055.16021031676</v>
+        <v>8187.549981670478</v>
       </c>
       <c r="S16">
-        <v>0.01578493131209042</v>
+        <v>0.03041513399362904</v>
       </c>
       <c r="T16">
-        <v>0.01578493131209042</v>
+        <v>0.03041513399362905</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.002486</v>
+        <v>0.01159</v>
       </c>
       <c r="N17">
-        <v>0.007458</v>
+        <v>0.03477</v>
       </c>
       <c r="O17">
-        <v>3.00751452789208E-05</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P17">
-        <v>3.00751452789208E-05</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q17">
-        <v>0.0009829536273333332</v>
+        <v>0.6925899504133334</v>
       </c>
       <c r="R17">
-        <v>0.008846582645999999</v>
+        <v>6.233309553720001</v>
       </c>
       <c r="S17">
-        <v>4.570716093456941E-08</v>
+        <v>2.315551608534806E-05</v>
       </c>
       <c r="T17">
-        <v>4.570716093456941E-08</v>
+        <v>2.315551608534806E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01171</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N18">
-        <v>0.03513</v>
+        <v>254.914367</v>
       </c>
       <c r="O18">
-        <v>0.0001416653062011917</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P18">
-        <v>0.0001416653062011917</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q18">
-        <v>0.004630083256666666</v>
+        <v>5077.685614040157</v>
       </c>
       <c r="R18">
-        <v>0.04167074931</v>
+        <v>45699.17052636141</v>
       </c>
       <c r="S18">
-        <v>2.15298010677316E-07</v>
+        <v>0.1697634088425314</v>
       </c>
       <c r="T18">
-        <v>2.152980106773161E-07</v>
+        <v>0.1697634088425314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.107756666666667</v>
+        <v>7.249708000000001</v>
       </c>
       <c r="N19">
-        <v>27.32327</v>
+        <v>21.749124</v>
       </c>
       <c r="O19">
-        <v>0.1101838716472484</v>
+        <v>0.0674546855364323</v>
       </c>
       <c r="P19">
-        <v>0.1101838716472484</v>
+        <v>0.06745468553643229</v>
       </c>
       <c r="Q19">
-        <v>3.601167519054445</v>
+        <v>433.2247544634294</v>
       </c>
       <c r="R19">
-        <v>32.41050767149</v>
+        <v>3899.022790170864</v>
       </c>
       <c r="S19">
-        <v>0.0001674536201593848</v>
+        <v>0.01448410096704715</v>
       </c>
       <c r="T19">
-        <v>0.0001674536201593849</v>
+        <v>0.01448410096704715</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>65.26224133333334</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N20">
-        <v>195.786724</v>
+        <v>0.021365</v>
       </c>
       <c r="O20">
-        <v>0.7895299233016854</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P20">
-        <v>0.7895299233016855</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q20">
-        <v>25.80440742015422</v>
+        <v>0.002631367999444445</v>
       </c>
       <c r="R20">
-        <v>232.239666781388</v>
+        <v>0.023682311995</v>
       </c>
       <c r="S20">
-        <v>0.001199900147857351</v>
+        <v>8.797512005659758E-08</v>
       </c>
       <c r="T20">
-        <v>0.001199900147857351</v>
+        <v>8.797512005659758E-08</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>8.275423333333334</v>
+        <v>0.01171</v>
       </c>
       <c r="N21">
-        <v>24.82627</v>
+        <v>0.03513</v>
       </c>
       <c r="O21">
-        <v>0.1001144645995861</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P21">
-        <v>0.1001144645995861</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q21">
-        <v>3.272066525832222</v>
+        <v>0.004326700576666667</v>
       </c>
       <c r="R21">
-        <v>29.44859873249</v>
+        <v>0.03894030519</v>
       </c>
       <c r="S21">
-        <v>0.0001521504851562178</v>
+        <v>1.446555566388145E-07</v>
       </c>
       <c r="T21">
-        <v>0.0001521504851562178</v>
+        <v>1.446555566388145E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.002486</v>
+        <v>15.223647</v>
       </c>
       <c r="N22">
-        <v>0.007458</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O22">
-        <v>3.00751452789208E-05</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P22">
-        <v>3.00751452789208E-05</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q22">
-        <v>0.2612377517053333</v>
+        <v>5.624949808187001</v>
       </c>
       <c r="R22">
-        <v>2.351139765348</v>
+        <v>50.624548273683</v>
       </c>
       <c r="S22">
-        <v>1.214750688877776E-05</v>
+        <v>0.0001880602161279094</v>
       </c>
       <c r="T22">
-        <v>1.214750688877776E-05</v>
+        <v>0.0001880602161279094</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,43 +1863,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.01171</v>
+        <v>0.01159</v>
       </c>
       <c r="N23">
-        <v>0.03513</v>
+        <v>0.03477</v>
       </c>
       <c r="O23">
-        <v>0.0001416653062011917</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P23">
-        <v>0.0001416653062011917</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q23">
-        <v>1.230528589086667</v>
+        <v>0.004282362056666667</v>
       </c>
       <c r="R23">
-        <v>11.07475730178</v>
+        <v>0.03854125851</v>
       </c>
       <c r="S23">
-        <v>5.72193506305662E-05</v>
+        <v>1.431731768952913E-07</v>
       </c>
       <c r="T23">
-        <v>5.721935063056621E-05</v>
+        <v>1.431731768952912E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.107756666666667</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N24">
-        <v>27.32327</v>
+        <v>254.914367</v>
       </c>
       <c r="O24">
-        <v>0.1101838716472484</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P24">
-        <v>0.1101838716472484</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q24">
-        <v>957.0755730809578</v>
+        <v>31.39590488754678</v>
       </c>
       <c r="R24">
-        <v>8613.680157728621</v>
+        <v>282.563143987921</v>
       </c>
       <c r="S24">
-        <v>0.04450383622270511</v>
+        <v>0.001049666372149617</v>
       </c>
       <c r="T24">
-        <v>0.04450383622270512</v>
+        <v>0.001049666372149617</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.26224133333334</v>
+        <v>7.249708000000001</v>
       </c>
       <c r="N25">
-        <v>195.786724</v>
+        <v>21.749124</v>
       </c>
       <c r="O25">
-        <v>0.7895299233016854</v>
+        <v>0.0674546855364323</v>
       </c>
       <c r="P25">
-        <v>0.7895299233016855</v>
+        <v>0.06745468553643229</v>
       </c>
       <c r="Q25">
-        <v>6857.989218491905</v>
+        <v>2.678677692934667</v>
       </c>
       <c r="R25">
-        <v>61721.90296642714</v>
+        <v>24.108099236412</v>
       </c>
       <c r="S25">
-        <v>0.3188952237223425</v>
+        <v>8.955683571382297E-05</v>
       </c>
       <c r="T25">
-        <v>0.3188952237223425</v>
+        <v>8.955683571382295E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>8.275423333333334</v>
+        <v>0.007121666666666668</v>
       </c>
       <c r="N26">
-        <v>24.82627</v>
+        <v>0.021365</v>
       </c>
       <c r="O26">
-        <v>0.1001144645995861</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="P26">
-        <v>0.1001144645995861</v>
+        <v>6.626332888101038E-05</v>
       </c>
       <c r="Q26">
-        <v>869.611016094069</v>
+        <v>0.9106235403888889</v>
       </c>
       <c r="R26">
-        <v>7826.49914484662</v>
+        <v>8.1956118635</v>
       </c>
       <c r="S26">
-        <v>0.04043675058295209</v>
+        <v>3.044508229521313E-05</v>
       </c>
       <c r="T26">
-        <v>0.04043675058295209</v>
+        <v>3.044508229521313E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,33 +2111,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.002486</v>
+        <v>0.01171</v>
       </c>
       <c r="N27">
-        <v>0.007458</v>
+        <v>0.03513</v>
       </c>
       <c r="O27">
-        <v>3.00751452789208E-05</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="P27">
-        <v>3.00751452789208E-05</v>
+        <v>0.0001089553355295996</v>
       </c>
       <c r="Q27">
-        <v>0.07498165970533334</v>
+        <v>1.497318276333333</v>
       </c>
       <c r="R27">
-        <v>0.674834937348</v>
+        <v>13.475864487</v>
       </c>
       <c r="S27">
-        <v>3.486633236799255E-06</v>
+        <v>5.006017978145738E-05</v>
       </c>
       <c r="T27">
-        <v>3.486633236799256E-06</v>
+        <v>5.006017978145738E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01171</v>
+        <v>15.223647</v>
       </c>
       <c r="N28">
-        <v>0.03513</v>
+        <v>45.67094100000001</v>
       </c>
       <c r="O28">
-        <v>0.0001416653062011917</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="P28">
-        <v>0.0001416653062011917</v>
+        <v>0.141647956180118</v>
       </c>
       <c r="Q28">
-        <v>0.3531919690866667</v>
+        <v>1946.5964889451</v>
       </c>
       <c r="R28">
-        <v>3.17872772178</v>
+        <v>17519.3684005059</v>
       </c>
       <c r="S28">
-        <v>1.642336090222014E-05</v>
+        <v>0.06508099963701489</v>
       </c>
       <c r="T28">
-        <v>1.642336090222015E-05</v>
+        <v>0.06508099963701489</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>9.107756666666667</v>
+        <v>0.01159</v>
       </c>
       <c r="N29">
-        <v>27.32327</v>
+        <v>0.03477</v>
       </c>
       <c r="O29">
-        <v>0.1101838716472484</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="P29">
-        <v>0.1101838716472484</v>
+        <v>0.000107838799213327</v>
       </c>
       <c r="Q29">
-        <v>274.7042281009578</v>
+        <v>1.481974280333333</v>
       </c>
       <c r="R29">
-        <v>2472.33805290862</v>
+        <v>13.337768523</v>
       </c>
       <c r="S29">
-        <v>0.01277369553768302</v>
+        <v>4.954718050103254E-05</v>
       </c>
       <c r="T29">
-        <v>0.01277369553768303</v>
+        <v>4.954718050103254E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>65.26224133333334</v>
+        <v>84.97145566666667</v>
       </c>
       <c r="N30">
-        <v>195.786724</v>
+        <v>254.914367</v>
       </c>
       <c r="O30">
-        <v>0.7895299233016854</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="P30">
-        <v>0.7895299233016855</v>
+        <v>0.7906143008198258</v>
       </c>
       <c r="Q30">
-        <v>1968.411573315905</v>
+        <v>10865.01396552926</v>
       </c>
       <c r="R30">
-        <v>17715.70415984314</v>
+        <v>97785.1256897633</v>
       </c>
       <c r="S30">
-        <v>0.09153077222076193</v>
+        <v>0.3632524634470938</v>
       </c>
       <c r="T30">
-        <v>0.09153077222076193</v>
+        <v>0.3632524634470938</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.275423333333334</v>
+        <v>7.249708000000001</v>
       </c>
       <c r="N31">
-        <v>24.82627</v>
+        <v>21.749124</v>
       </c>
       <c r="O31">
-        <v>0.1001144645995861</v>
+        <v>0.0674546855364323</v>
       </c>
       <c r="P31">
-        <v>0.1001144645995861</v>
+        <v>0.06745468553643229</v>
       </c>
       <c r="Q31">
-        <v>249.5997491140689</v>
+        <v>926.9957546097334</v>
       </c>
       <c r="R31">
-        <v>2246.39774202662</v>
+        <v>8342.9617914876</v>
       </c>
       <c r="S31">
-        <v>0.011606341931852</v>
+        <v>0.03099245822741844</v>
       </c>
       <c r="T31">
-        <v>0.01160634193185201</v>
+        <v>0.03099245822741843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H32">
+        <v>16.711339</v>
+      </c>
+      <c r="I32">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J32">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.007121666666666668</v>
+      </c>
+      <c r="N32">
+        <v>0.021365</v>
+      </c>
+      <c r="O32">
+        <v>6.626332888101038E-05</v>
+      </c>
+      <c r="P32">
+        <v>6.626332888101038E-05</v>
+      </c>
+      <c r="Q32">
+        <v>0.03967086197055556</v>
+      </c>
+      <c r="R32">
+        <v>0.3570377577350001</v>
+      </c>
+      <c r="S32">
+        <v>1.326324879433505E-06</v>
+      </c>
+      <c r="T32">
+        <v>1.326324879433505E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H33">
+        <v>16.711339</v>
+      </c>
+      <c r="I33">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J33">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01171</v>
+      </c>
+      <c r="N33">
+        <v>0.03513</v>
+      </c>
+      <c r="O33">
+        <v>0.0001089553355295996</v>
+      </c>
+      <c r="P33">
+        <v>0.0001089553355295996</v>
+      </c>
+      <c r="Q33">
+        <v>0.06522992656333333</v>
+      </c>
+      <c r="R33">
+        <v>0.5870693390700001</v>
+      </c>
+      <c r="S33">
+        <v>2.180846853007209E-06</v>
+      </c>
+      <c r="T33">
+        <v>2.18084685300721E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H34">
+        <v>16.711339</v>
+      </c>
+      <c r="I34">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J34">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>15.223647</v>
+      </c>
+      <c r="N34">
+        <v>45.67094100000001</v>
+      </c>
+      <c r="O34">
+        <v>0.141647956180118</v>
+      </c>
+      <c r="P34">
+        <v>0.141647956180118</v>
+      </c>
+      <c r="Q34">
+        <v>84.80250861111102</v>
+      </c>
+      <c r="R34">
+        <v>763.2225774999993</v>
+      </c>
+      <c r="S34">
+        <v>0.002835221404888356</v>
+      </c>
+      <c r="T34">
+        <v>0.002835221404888357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H35">
+        <v>16.711339</v>
+      </c>
+      <c r="I35">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J35">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01159</v>
+      </c>
+      <c r="N35">
+        <v>0.03477</v>
+      </c>
+      <c r="O35">
+        <v>0.000107838799213327</v>
+      </c>
+      <c r="P35">
+        <v>0.000107838799213327</v>
+      </c>
+      <c r="Q35">
+        <v>0.06456147300333334</v>
+      </c>
+      <c r="R35">
+        <v>0.5810532570300001</v>
+      </c>
+      <c r="S35">
+        <v>2.158498294308588E-06</v>
+      </c>
+      <c r="T35">
+        <v>2.158498294308588E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H36">
+        <v>16.711339</v>
+      </c>
+      <c r="I36">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J36">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>84.97145566666667</v>
+      </c>
+      <c r="N36">
+        <v>254.914367</v>
+      </c>
+      <c r="O36">
+        <v>0.7906143008198258</v>
+      </c>
+      <c r="P36">
+        <v>0.7906143008198258</v>
+      </c>
+      <c r="Q36">
+        <v>473.3289336563793</v>
+      </c>
+      <c r="R36">
+        <v>4259.960402907413</v>
+      </c>
+      <c r="S36">
+        <v>0.0158249130389489</v>
+      </c>
+      <c r="T36">
+        <v>0.0158249130389489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H37">
+        <v>16.711339</v>
+      </c>
+      <c r="I37">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J37">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>7.249708000000001</v>
+      </c>
+      <c r="N37">
+        <v>21.749124</v>
+      </c>
+      <c r="O37">
+        <v>0.0674546855364323</v>
+      </c>
+      <c r="P37">
+        <v>0.06745468553643229</v>
+      </c>
+      <c r="Q37">
+        <v>40.38410934633734</v>
+      </c>
+      <c r="R37">
+        <v>363.4569841170361</v>
+      </c>
+      <c r="S37">
+        <v>0.001350171039882254</v>
+      </c>
+      <c r="T37">
+        <v>0.001350171039882254</v>
       </c>
     </row>
   </sheetData>
